--- a/Report Materials/data/100percent_nov17.xlsx
+++ b/Report Materials/data/100percent_nov17.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonsRazer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonsRazer\Dropbox\NOTES\MECH 423 - Mechatronic Product Design\LAB\MSP430\Report Materials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{824BC627-43E2-4817-8543-9033B312777C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1556A-4F5C-4821-ADCC-BD1AC4ACBA65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="100percent_nov17" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,6 +604,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>100% Duty</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -629,11 +662,22 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100percent_nov17'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPM smoothed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -648,10 +692,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'100percent_nov17'!$A$2:$A$229</c:f>
+              <c:f>'100percent_nov17'!$A$2:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="228"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -744,10 +788,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'100percent_nov17'!$D$2:$D$229</c:f>
+              <c:f>'100percent_nov17'!$D$2:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="228"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -838,10 +882,10 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EBED-4CCD-ADD0-26933A524C3F}"/>
+              <c16:uniqueId val="{00000000-BB74-4E4C-A23C-3B394305F9DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -853,11 +897,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1598322511"/>
-        <c:axId val="1463532959"/>
+        <c:axId val="108264239"/>
+        <c:axId val="108163951"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1598322511"/>
+        <c:axId val="108264239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,6 +921,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -914,12 +1013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1463532959"/>
+        <c:crossAx val="108163951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1463532959"/>
+        <c:axId val="108163951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,6 +1038,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Velocity [RPM]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9444444444444445E-2"/>
+              <c:y val="0.38499234470691163"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -976,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1598322511"/>
+        <c:crossAx val="108264239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1592,23 +1754,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD44B8B2-2227-40D7-82AA-103901464B07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FFCFEF-7287-4190-B591-337E74E3C7D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1925,11 +2087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1938,7 +2100,7 @@
     <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1954,8 +2116,12 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <f>AVERAGE(D15:D30)</f>
+        <v>4656.5981364252057</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1973,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+(1/122)</f>
         <v>8.1967213114754103E-3</v>
@@ -1992,7 +2158,7 @@
         <v>69.504642123297089</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A30" si="0">A3+(1/122)</f>
         <v>1.6393442622950821E-2</v>
@@ -2011,7 +2177,7 @@
         <v>133.61724182013748</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2.4590163934426229E-2</v>
@@ -2030,7 +2196,7 @@
         <v>210.68035385233136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>3.2786885245901641E-2</v>
@@ -2049,7 +2215,7 @@
         <v>309.86061780973347</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>4.0983606557377053E-2</v>
@@ -2068,7 +2234,7 @@
         <v>401.25226778758787</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>4.9180327868852465E-2</v>
@@ -2087,7 +2253,7 @@
         <v>451.65608498162749</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5.7377049180327877E-2</v>
@@ -2106,7 +2272,7 @@
         <v>467.06540731054577</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6.5573770491803282E-2</v>
@@ -2125,7 +2291,7 @@
         <v>473.94725572840542</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7.3770491803278687E-2</v>
@@ -2144,7 +2310,7 @@
         <v>482.18503272695159</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>8.1967213114754092E-2</v>
@@ -2163,7 +2329,7 @@
         <v>486.62304747339897</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>9.0163934426229497E-2</v>
@@ -2182,7 +2348,7 @@
         <v>486.07659243528798</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>9.8360655737704902E-2</v>
@@ -2201,7 +2367,7 @@
         <v>485.09177794390376</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>0.10655737704918031</v>
@@ -2220,7 +2386,7 @@
         <v>485.94919659753219</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>0.11475409836065571</v>
